--- a/Prove-Assignments/prove05 (Decision_Tree)/Loan.xlsx
+++ b/Prove-Assignments/prove05 (Decision_Tree)/Loan.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adammcpherson/Documents/Machine/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/771c9d6cd312e0e1/BYUI/CS450 (Machine Learning)/machine-learning/Prove-Assignments/prove05 (Decision_Tree)/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="12D6D95631E5A61047808A93FB639E368067AE5D" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{F70D7062-8690-4EC8-AB35-B6458CA0FFE3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{29C0EEAE-1194-E848-BC3A-83E01FF4C351}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="21600" xr2:uid="{29C0EEAE-1194-E848-BC3A-83E01FF4C351}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -101,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -254,8 +258,36 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{F34920B4-2E3E-4F79-AF60-1015D4CDC0E1}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -566,16 +598,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C137B3E1-B55B-7F45-91B5-71078D8EAF79}">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.3984375" customWidth="1"/>
+    <col min="7" max="7" width="32.59765625" customWidth="1"/>
+    <col min="10" max="10" width="16.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -635,7 +669,7 @@
         <v>0.27042604148637761</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -686,7 +720,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -737,7 +771,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="H5" t="s">
         <v>14</v>
       </c>
@@ -763,7 +797,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -824,7 +858,7 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -889,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -954,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="H9" t="s">
         <v>14</v>
       </c>
@@ -995,7 +1029,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1046,7 +1080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1111,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1177,7 +1211,7 @@
         <v>0.45914791702724478</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H13" t="s">
         <v>14</v>
       </c>
@@ -1200,7 +1234,7 @@
         <v>0.45914791702724478</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D14" s="7" t="s">
         <v>18</v>
       </c>
@@ -1242,7 +1276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="8">
         <v>1</v>
       </c>
@@ -1302,7 +1336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="8">
         <v>2</v>
       </c>
@@ -1361,7 +1395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="4:22" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D17" s="8">
         <v>3</v>
       </c>
@@ -1421,7 +1455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="4:22" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="8">
         <v>4</v>
       </c>
@@ -1445,7 +1479,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="19" spans="4:22" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D19" s="8">
         <v>5</v>
       </c>
@@ -1487,7 +1521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="4:22" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D20" s="8">
         <v>6</v>
       </c>
@@ -1535,7 +1569,7 @@
         <v>0.26416041678685936</v>
       </c>
     </row>
-    <row r="21" spans="4:22" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="8">
         <v>7</v>
       </c>
@@ -1583,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:22" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D22" s="8">
         <v>8</v>
       </c>
@@ -1614,7 +1648,7 @@
         <v>0.26416041678685936</v>
       </c>
     </row>
-    <row r="23" spans="4:22" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D23" s="8">
         <v>9</v>
       </c>
@@ -1631,7 +1665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="4:22" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D24" s="8">
         <v>10</v>
       </c>
@@ -1648,7 +1682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="4:22" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D25" s="8">
         <v>11</v>
       </c>
@@ -1665,7 +1699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="4:22" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="8">
         <v>12</v>
       </c>
